--- a/input/Financial Statement CRM/Income Statements All-CRM.xlsx
+++ b/input/Financial Statement CRM/Income Statements All-CRM.xlsx
@@ -448,7 +448,11 @@
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jan. 31, 2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,7 +468,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>17098</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,10 +486,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4235</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +496,9 @@
           <t>Gross profit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>12863</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -508,10 +514,8 @@
           <t>Research and development</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>2766</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +524,8 @@
           <t>Marketing and sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7930</v>
       </c>
     </row>
     <row r="10">
@@ -532,10 +534,8 @@
           <t>General and administrative</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1704</v>
       </c>
     </row>
     <row r="11">
@@ -544,7 +544,9 @@
           <t>Loss on settlement of Salesforce.org reseller agreement (Note 7)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -552,10 +554,8 @@
           <t>Total operating expenses</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B12" t="n">
+        <v>12566</v>
       </c>
     </row>
     <row r="13">
@@ -564,7 +564,9 @@
           <t>Income from operations</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -572,7 +574,9 @@
           <t>Gains on strategic investments, net</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -580,7 +584,9 @@
           <t>Other expense</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -588,7 +594,9 @@
           <t>Income before benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>706</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -596,10 +604,8 @@
           <t>Benefit from (provision for) income taxes (3)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
+      <c r="B17" t="n">
+        <v>-580</v>
       </c>
     </row>
     <row r="18">
@@ -608,7 +614,9 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -616,7 +624,9 @@
           <t>Basic net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -624,7 +634,9 @@
           <t>Diluted net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -632,7 +644,9 @@
           <t>Shares used in computing basic net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>829</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -640,7 +654,9 @@
           <t>Shares used in computing diluted net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -664,7 +680,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>16043</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -680,10 +698,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B27" t="n">
+        <v>3198</v>
       </c>
     </row>
     <row r="28">
@@ -708,7 +724,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>1055</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -724,10 +742,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B32" t="n">
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +771,11 @@
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Apr. 30, 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -771,7 +791,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>7411</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -787,10 +809,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B5" t="n">
+        <v>2045</v>
       </c>
     </row>
     <row r="6">
@@ -799,7 +819,9 @@
           <t>Gross profit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>5366</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -815,10 +837,8 @@
           <t>Research and development</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1318</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +847,8 @@
           <t>Marketing and sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B9" t="n">
+        <v>3372</v>
       </c>
     </row>
     <row r="10">
@@ -839,10 +857,8 @@
           <t>General and administrative</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B10" t="n">
+        <v>656</v>
       </c>
     </row>
     <row r="11">
@@ -851,10 +867,8 @@
           <t>Total operating expenses</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B11" t="n">
+        <v>5346</v>
       </c>
     </row>
     <row r="12">
@@ -863,7 +877,9 @@
           <t>Income from operations</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -871,7 +887,9 @@
           <t>Gains on strategic investments, net</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -879,7 +897,9 @@
           <t>Other expense</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-56</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -887,7 +907,9 @@
           <t>Income (loss) before benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -895,7 +917,9 @@
           <t>Benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -903,7 +927,9 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -911,7 +937,9 @@
           <t>Basic net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -919,7 +947,9 @@
           <t>Diluted net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -927,7 +957,9 @@
           <t>Shares used in computing basic net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>991</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -935,7 +967,9 @@
           <t>Shares used in computing diluted net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -959,7 +993,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>6856</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -975,10 +1011,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B26" t="n">
+        <v>1440</v>
       </c>
     </row>
     <row r="27">
@@ -1003,7 +1037,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>555</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1019,10 +1055,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B31" t="n">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +1084,11 @@
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Apr. 30, 2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1066,7 +1104,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>4865</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1082,10 +1122,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1254</v>
       </c>
     </row>
     <row r="6">
@@ -1094,7 +1132,9 @@
           <t>Gross profit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>3611</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1110,10 +1150,8 @@
           <t>Research and development</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>859</v>
       </c>
     </row>
     <row r="9">
@@ -1122,10 +1160,8 @@
           <t>Marketing and sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2390</v>
       </c>
     </row>
     <row r="10">
@@ -1134,10 +1170,8 @@
           <t>General and administrative</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B10" t="n">
+        <v>502</v>
       </c>
     </row>
     <row r="11">
@@ -1146,10 +1180,8 @@
           <t>Total operating expenses</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B11" t="n">
+        <v>3751</v>
       </c>
     </row>
     <row r="12">
@@ -1158,7 +1190,9 @@
           <t>Income (loss) from operations</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>-140</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1166,7 +1200,9 @@
           <t>Gains on strategic investments, net</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1174,7 +1210,9 @@
           <t>Other expense</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1182,7 +1220,9 @@
           <t>Income before benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1190,7 +1230,9 @@
           <t>Benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1198,7 +1240,9 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1206,7 +1250,9 @@
           <t>Basic net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1214,7 +1260,9 @@
           <t>Diluted net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1222,7 +1270,9 @@
           <t>Shares used in computing basic net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>896</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1230,7 +1280,9 @@
           <t>Shares used in computing diluted net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>913</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1254,7 +1306,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>4575</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1270,10 +1324,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B26" t="n">
+        <v>966</v>
       </c>
     </row>
     <row r="27">
@@ -1298,7 +1350,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1314,10 +1368,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B31" t="n">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1397,11 @@
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jul. 31, 2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1361,7 +1417,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>5151</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1377,10 +1435,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1311</v>
       </c>
     </row>
     <row r="6">
@@ -1389,7 +1445,9 @@
           <t>Gross profit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>3840</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1405,10 +1463,8 @@
           <t>Research and development</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>898</v>
       </c>
     </row>
     <row r="9">
@@ -1417,10 +1473,8 @@
           <t>Marketing and sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2275</v>
       </c>
     </row>
     <row r="10">
@@ -1429,10 +1483,8 @@
           <t>General and administrative</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B10" t="n">
+        <v>489</v>
       </c>
     </row>
     <row r="11">
@@ -1441,10 +1493,8 @@
           <t>Loss on settlement of Salesforce.org reseller agreement</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1453,10 +1503,8 @@
           <t>Total operating expenses</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B12" t="n">
+        <v>3662</v>
       </c>
     </row>
     <row r="13">
@@ -1465,7 +1513,9 @@
           <t>Income from operations</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1473,7 +1523,9 @@
           <t>Gains on strategic investments, net</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>682</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1481,7 +1533,9 @@
           <t>Other expense</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1489,7 +1543,9 @@
           <t>Income before benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>839</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1497,10 +1553,8 @@
           <t>Benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
+      <c r="B17" t="n">
+        <v>1786</v>
       </c>
     </row>
     <row r="18">
@@ -1509,7 +1563,9 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2625</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1517,7 +1573,9 @@
           <t>Basic net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1525,7 +1583,9 @@
           <t>Diluted net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1533,7 +1593,9 @@
           <t>Shares used in computing basic net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>904</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1541,7 +1603,9 @@
           <t>Shares used in computing diluted net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>922</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1565,7 +1629,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>4840</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1581,10 +1647,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B27" t="n">
+        <v>1013</v>
       </c>
     </row>
     <row r="28">
@@ -1609,7 +1673,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1625,10 +1691,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B32" t="n">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1656,7 +1720,11 @@
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 31, 2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1672,7 +1740,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>5419</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1688,10 +1758,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1394</v>
       </c>
     </row>
     <row r="6">
@@ -1700,7 +1768,9 @@
           <t>Gross profit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>4025</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1716,10 +1786,8 @@
           <t>Research and development</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>902</v>
       </c>
     </row>
     <row r="9">
@@ -1728,10 +1796,8 @@
           <t>Marketing and sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2377</v>
       </c>
     </row>
     <row r="10">
@@ -1740,10 +1806,8 @@
           <t>General and administrative</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B10" t="n">
+        <v>522</v>
       </c>
     </row>
     <row r="11">
@@ -1752,10 +1816,8 @@
           <t>Loss on settlement of Salesforce.org reseller agreement</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1764,10 +1826,8 @@
           <t>Total operating expenses</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B12" t="n">
+        <v>3801</v>
       </c>
     </row>
     <row r="13">
@@ -1776,7 +1836,9 @@
           <t>Income from operations</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1784,10 +1846,8 @@
           <t>Gains on strategic investments, net</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
+      <c r="B14" t="n">
+        <v>1036</v>
       </c>
     </row>
     <row r="15">
@@ -1796,7 +1856,9 @@
           <t>Other expense</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1804,7 +1866,9 @@
           <t>Income before benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1250</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1812,10 +1876,8 @@
           <t>Benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
+      <c r="B17" t="n">
+        <v>-169</v>
       </c>
     </row>
     <row r="18">
@@ -1824,7 +1886,9 @@
           <t>Net income (loss)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1081</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1832,7 +1896,9 @@
           <t>Basic net income (loss) per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1840,7 +1906,9 @@
           <t>Diluted net income (loss) per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1848,7 +1916,9 @@
           <t>Shares used in computing basic net income (loss) per share (in shares)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>911</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1856,7 +1926,9 @@
           <t>Shares used in computing diluted net income (loss) per share (in shares)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>939</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1864,7 +1936,9 @@
           <t>Net unrealized gains (loss) recognized</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1888,7 +1962,9 @@
           <t>Net unrealized gains (loss) recognized</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>997</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1912,7 +1988,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>5085</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1928,10 +2006,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B31" t="n">
+        <v>1060</v>
       </c>
     </row>
     <row r="32">
@@ -1956,7 +2032,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1972,10 +2050,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B36" t="n">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2079,11 @@
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jan. 31, 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2019,7 +2099,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>21252</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2035,10 +2117,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B5" t="n">
+        <v>5438</v>
       </c>
     </row>
     <row r="6">
@@ -2047,7 +2127,9 @@
           <t>Gross profit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>15814</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2063,10 +2145,8 @@
           <t>Research and development</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>3598</v>
       </c>
     </row>
     <row r="9">
@@ -2075,10 +2155,8 @@
           <t>Marketing and sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B9" t="n">
+        <v>9674</v>
       </c>
     </row>
     <row r="10">
@@ -2087,10 +2165,8 @@
           <t>General and administrative</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B10" t="n">
+        <v>2087</v>
       </c>
     </row>
     <row r="11">
@@ -2099,10 +2175,8 @@
           <t>Loss on settlement of Salesforce.org reseller agreement</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2111,10 +2185,8 @@
           <t>Total operating expenses</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B12" t="n">
+        <v>15359</v>
       </c>
     </row>
     <row r="13">
@@ -2123,7 +2195,9 @@
           <t>Income from operations</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>455</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2131,10 +2205,8 @@
           <t>Gains on strategic investments, net</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
+      <c r="B14" t="n">
+        <v>2170</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +2215,9 @@
           <t>Other expense</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-64</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2151,7 +2225,9 @@
           <t>Income before benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>2561</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2159,10 +2235,8 @@
           <t>Benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
+      <c r="B17" t="n">
+        <v>1511</v>
       </c>
     </row>
     <row r="18">
@@ -2171,7 +2245,9 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>4072</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2179,7 +2255,9 @@
           <t>Basic net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>4.48</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2187,7 +2265,9 @@
           <t>Diluted net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>4.38</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2195,7 +2275,9 @@
           <t>Shares used in computing basic net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>908</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2203,7 +2285,9 @@
           <t>Shares used in computing diluted net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>930</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2227,7 +2311,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>19976</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2243,10 +2329,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B27" t="n">
+        <v>4154</v>
       </c>
     </row>
     <row r="28">
@@ -2271,7 +2355,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>1276</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2287,10 +2373,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B32" t="n">
+        <v>1284</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +2402,11 @@
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Apr. 30, 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2334,7 +2422,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>5963</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2350,10 +2440,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1555</v>
       </c>
     </row>
     <row r="6">
@@ -2362,7 +2450,9 @@
           <t>Gross profit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>4408</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2378,10 +2468,8 @@
           <t>Research and development</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>951</v>
       </c>
     </row>
     <row r="9">
@@ -2390,10 +2478,8 @@
           <t>Marketing and sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2544</v>
       </c>
     </row>
     <row r="10">
@@ -2402,10 +2488,8 @@
           <t>General and administrative</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B10" t="n">
+        <v>559</v>
       </c>
     </row>
     <row r="11">
@@ -2414,10 +2498,8 @@
           <t>Total operating expenses</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B11" t="n">
+        <v>4054</v>
       </c>
     </row>
     <row r="12">
@@ -2426,7 +2508,9 @@
           <t>Income (loss) from operations</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2434,7 +2518,9 @@
           <t>Gains on strategic investments, net</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2442,7 +2528,9 @@
           <t>Other expense</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2450,7 +2538,9 @@
           <t>Income before benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>604</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2458,7 +2548,9 @@
           <t>Benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-135</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2466,7 +2558,9 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>469</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2474,7 +2568,9 @@
           <t>Basic net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2482,7 +2578,9 @@
           <t>Diluted net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2490,7 +2588,9 @@
           <t>Shares used in computing basic net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>921</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2498,7 +2598,9 @@
           <t>Shares used in computing diluted net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2522,7 +2624,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>5536</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2538,10 +2642,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B26" t="n">
+        <v>1122</v>
       </c>
     </row>
     <row r="27">
@@ -2566,7 +2668,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2582,10 +2686,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B31" t="n">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -2613,7 +2715,11 @@
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jul. 31, 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2629,7 +2735,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>6340</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2645,10 +2753,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1613</v>
       </c>
     </row>
     <row r="6">
@@ -2657,7 +2763,9 @@
           <t>Gross profit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>4727</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2673,10 +2781,8 @@
           <t>Research and development</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1020</v>
       </c>
     </row>
     <row r="9">
@@ -2685,10 +2791,8 @@
           <t>Marketing and sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2736</v>
       </c>
     </row>
     <row r="10">
@@ -2697,10 +2801,8 @@
           <t>General and administrative</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B10" t="n">
+        <v>639</v>
       </c>
     </row>
     <row r="11">
@@ -2709,10 +2811,8 @@
           <t>Total operating expenses</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B11" t="n">
+        <v>4395</v>
       </c>
     </row>
     <row r="12">
@@ -2721,7 +2821,9 @@
           <t>Income from operations</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2729,7 +2831,9 @@
           <t>Gains on strategic investments, net</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>526</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2737,7 +2841,9 @@
           <t>Other expense</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-32</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2745,7 +2851,9 @@
           <t>Income before benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>826</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2753,10 +2861,8 @@
           <t>Benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
+      <c r="B16" t="n">
+        <v>-291</v>
       </c>
     </row>
     <row r="17">
@@ -2765,7 +2871,9 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>535</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2773,7 +2881,9 @@
           <t>Basic net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2781,7 +2891,9 @@
           <t>Diluted net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2789,7 +2901,9 @@
           <t>Shares used in computing basic net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>933</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2797,7 +2911,9 @@
           <t>Shares used in computing diluted net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2821,7 +2937,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>5914</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2837,10 +2955,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B26" t="n">
+        <v>1146</v>
       </c>
     </row>
     <row r="27">
@@ -2865,7 +2981,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2881,10 +2999,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B31" t="n">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +3028,11 @@
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 31, 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2928,7 +3048,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>6863</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2944,10 +3066,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1844</v>
       </c>
     </row>
     <row r="6">
@@ -2956,7 +3076,9 @@
           <t>Gross profit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>5019</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2972,10 +3094,8 @@
           <t>Research and development</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1203</v>
       </c>
     </row>
     <row r="9">
@@ -2984,10 +3104,8 @@
           <t>Marketing and sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B9" t="n">
+        <v>3111</v>
       </c>
     </row>
     <row r="10">
@@ -2996,10 +3114,8 @@
           <t>General and administrative</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B10" t="n">
+        <v>667</v>
       </c>
     </row>
     <row r="11">
@@ -3008,10 +3124,8 @@
           <t>Total operating expenses</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B11" t="n">
+        <v>4981</v>
       </c>
     </row>
     <row r="12">
@@ -3020,7 +3134,9 @@
           <t>Income from operations</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3028,7 +3144,9 @@
           <t>Gains on strategic investments, net</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3036,7 +3154,9 @@
           <t>Other expense</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>-102</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3044,7 +3164,9 @@
           <t>Income before benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3052,10 +3174,8 @@
           <t>Benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
+      <c r="B16" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="17">
@@ -3064,7 +3184,9 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>468</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3072,7 +3194,9 @@
           <t>Basic net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3080,7 +3204,9 @@
           <t>Diluted net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3088,7 +3214,9 @@
           <t>Shares used in computing basic net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>980</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3096,7 +3224,9 @@
           <t>Shares used in computing diluted net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3120,7 +3250,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>6379</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3136,10 +3268,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B26" t="n">
+        <v>1335</v>
       </c>
     </row>
     <row r="27">
@@ -3164,7 +3294,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>484</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3180,10 +3312,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B31" t="n">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +3341,11 @@
           <t>label</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jan. 31, 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3227,7 +3361,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>26492</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3243,10 +3379,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B5" t="n">
+        <v>7026</v>
       </c>
     </row>
     <row r="6">
@@ -3255,7 +3389,9 @@
           <t>Gross profit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>19466</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3271,10 +3407,8 @@
           <t>Research and development</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B8" t="n">
+        <v>4465</v>
       </c>
     </row>
     <row r="9">
@@ -3283,10 +3417,8 @@
           <t>Marketing and sales</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B9" t="n">
+        <v>11855</v>
       </c>
     </row>
     <row r="10">
@@ -3295,10 +3427,8 @@
           <t>General and administrative</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B10" t="n">
+        <v>2598</v>
       </c>
     </row>
     <row r="11">
@@ -3307,10 +3437,8 @@
           <t>Loss on settlement of Salesforce.org reseller agreement</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3319,10 +3447,8 @@
           <t>Total operating expenses</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B12" t="n">
+        <v>18918</v>
       </c>
     </row>
     <row r="13">
@@ -3331,7 +3457,9 @@
           <t>Income from operations</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>548</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3339,7 +3467,9 @@
           <t>Gains on strategic investments, net</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1211</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3347,7 +3477,9 @@
           <t>Other expense</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-227</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3355,7 +3487,9 @@
           <t>Income before benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1532</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3363,10 +3497,8 @@
           <t>Benefit from (provision for) income taxes</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
+      <c r="B17" t="n">
+        <v>-88</v>
       </c>
     </row>
     <row r="18">
@@ -3375,7 +3507,9 @@
           <t>Net income</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1444</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3383,7 +3517,9 @@
           <t>Basic net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3391,7 +3527,9 @@
           <t>Diluted net income per share (in dollars per share)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3399,7 +3537,9 @@
           <t>Shares used in computing basic net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>955</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3407,7 +3547,9 @@
           <t>Shares used in computing diluted net income per share (in shares)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>974</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3431,7 +3573,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>24657</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3447,10 +3591,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B27" t="n">
+        <v>5059</v>
       </c>
     </row>
     <row r="28">
@@ -3475,7 +3617,9 @@
           <t>Total revenues</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>1835</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3491,10 +3635,8 @@
           <t>Total cost of revenues</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>[1],[2]</t>
-        </is>
+      <c r="B32" t="n">
+        <v>1967</v>
       </c>
     </row>
   </sheetData>
